--- a/full_exp/biomass.xlsx
+++ b/full_exp/biomass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/seedpriorities/full_exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8D7FBE-AB5F-0B47-8FF7-CEFDDE105D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA3A8EF-3E1D-7147-BD22-FEBC6764BFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{5C075D5B-B3A4-6243-BB7B-0125E0BB0E95}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{5C075D5B-B3A4-6243-BB7B-0125E0BB0E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="15">
   <si>
     <t>sp</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>12(11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hesp </t>
+  </si>
+  <si>
+    <t>5(4)</t>
+  </si>
+  <si>
+    <t>8(7)</t>
+  </si>
+  <si>
+    <t>6(7)</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600BCCE-FF15-BF4C-946A-FD7AF1493A73}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1800,6 +1812,1252 @@
         <v>97</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>46</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
+        <v>136</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>189</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>189</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104">
+        <v>316</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105">
+        <v>51</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>47</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>96</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108">
+        <v>240</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>240</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110">
+        <v>159</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>249</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>186</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>149</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>149</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>237</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>29</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>139</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>49</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>49</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120">
+        <v>139</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>48</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122">
+        <v>185</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>185</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>91</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>144</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>341</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131">
+        <v>147</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>144</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>106</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>233</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>184</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>184</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>279</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>279</v>
+      </c>
+      <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>241</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>26</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141">
+        <v>233</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142">
+        <v>193</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>294</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>193</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145">
+        <v>338</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146">
+        <v>59</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>103</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>103</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>318</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>201</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>58</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>59</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>239</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>239</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>275</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>273</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>328</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>274</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>288</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>195</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>284</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>195</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>284</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>328</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>234</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>275</v>
+      </c>
+      <c r="C166">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>234</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>230</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>288</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170">
+        <v>274</v>
+      </c>
+      <c r="C170">
+        <v>9</v>
+      </c>
+      <c r="D170">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+      <c r="D171">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>230</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>318</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>94</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>273</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>94</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>58</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>95</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179">
+        <v>281</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>16</v>
+      </c>
+      <c r="D180">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>323</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>95</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>266</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>142</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185">
+        <v>236</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>53</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187">
+        <v>183</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>323</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/full_exp/biomass.xlsx
+++ b/full_exp/biomass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/seedpriorities/full_exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA3A8EF-3E1D-7147-BD22-FEBC6764BFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16862E1-9BFE-614E-BFA8-EEAF1C7BA162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" xr2:uid="{5C075D5B-B3A4-6243-BB7B-0125E0BB0E95}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="28040" windowHeight="16560" xr2:uid="{5C075D5B-B3A4-6243-BB7B-0125E0BB0E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="15">
-  <si>
-    <t>sp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="14">
   <si>
     <t>pot)number</t>
   </si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>Hesp</t>
-  </si>
-  <si>
-    <t>Heps</t>
   </si>
   <si>
     <t>Cryp</t>
@@ -80,18 +74,27 @@
   <si>
     <t>6(7)</t>
   </si>
+  <si>
+    <t>potnumber</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,31 +434,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4600BCCE-FF15-BF4C-946A-FD7AF1493A73}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>148</v>
@@ -468,7 +472,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>326</v>
@@ -482,7 +486,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>317</v>
@@ -496,7 +500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -510,7 +514,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -524,7 +528,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>187</v>
@@ -535,7 +539,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -549,7 +553,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -563,7 +567,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>271</v>
@@ -577,7 +581,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -591,7 +595,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>272</v>
@@ -605,7 +609,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>320</v>
@@ -619,7 +623,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>104</v>
@@ -633,7 +637,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>138</v>
@@ -647,7 +651,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -661,7 +665,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>104</v>
@@ -675,7 +679,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -689,7 +693,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -703,7 +707,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>232</v>
@@ -717,7 +721,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -731,7 +735,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>13</v>
@@ -745,7 +749,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>141</v>
@@ -759,7 +763,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>330</v>
@@ -773,7 +777,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>324</v>
@@ -787,7 +791,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>324</v>
@@ -801,7 +805,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>283</v>
@@ -815,7 +819,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>283</v>
@@ -829,7 +833,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>280</v>
@@ -843,13 +847,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>280</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>128</v>
@@ -857,13 +861,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>1028</v>
@@ -871,7 +875,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>101</v>
@@ -885,7 +889,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>194</v>
@@ -899,7 +903,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>194</v>
@@ -913,7 +917,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>55</v>
@@ -927,7 +931,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>55</v>
@@ -941,7 +945,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -955,7 +959,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -969,13 +973,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>865</v>
@@ -983,7 +987,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>98</v>
@@ -997,7 +1001,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
         <v>325</v>
@@ -1011,7 +1015,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>325</v>
@@ -1025,7 +1029,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -1039,7 +1043,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1053,7 +1057,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>227</v>
@@ -1067,7 +1071,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -1081,7 +1085,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>92</v>
@@ -1095,7 +1099,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>54</v>
@@ -1109,7 +1113,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>145</v>
@@ -1123,7 +1127,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1137,7 +1141,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -1151,7 +1155,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>190</v>
@@ -1165,7 +1169,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>190</v>
@@ -1179,7 +1183,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>145</v>
@@ -1193,7 +1197,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1207,7 +1211,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>11</v>
@@ -1221,7 +1225,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>12</v>
@@ -1235,7 +1239,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>181</v>
@@ -1249,13 +1253,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>191</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>1019</v>
@@ -1263,7 +1267,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>140</v>
@@ -1277,7 +1281,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>143</v>
@@ -1291,7 +1295,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>238</v>
@@ -1305,7 +1309,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
         <v>150</v>
@@ -1333,7 +1337,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -1347,7 +1351,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
         <v>99</v>
@@ -1361,7 +1365,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>143</v>
@@ -1375,7 +1379,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>322</v>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>140</v>
@@ -1403,7 +1407,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>238</v>
@@ -1417,7 +1421,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>329</v>
@@ -1431,7 +1435,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
         <v>329</v>
@@ -1445,7 +1449,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>136</v>
@@ -1459,7 +1463,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>57</v>
@@ -1473,7 +1477,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>60</v>
@@ -1487,7 +1491,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>102</v>
@@ -1501,7 +1505,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>278</v>
@@ -1515,7 +1519,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>321</v>
@@ -1529,7 +1533,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79">
         <v>192</v>
@@ -1540,7 +1544,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>231</v>
@@ -1554,7 +1558,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
         <v>319</v>
@@ -1568,7 +1572,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B82">
         <v>278</v>
@@ -1582,7 +1586,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <v>319</v>
@@ -1596,7 +1600,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -1610,7 +1614,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>7</v>
@@ -1624,7 +1628,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>105</v>
@@ -1635,7 +1639,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87">
         <v>52</v>
@@ -1649,7 +1653,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>237</v>
@@ -1663,7 +1667,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>93</v>
@@ -1677,7 +1681,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>282</v>
@@ -1688,7 +1692,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91">
         <v>277</v>
@@ -1702,7 +1706,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>182</v>
@@ -1716,7 +1720,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93">
         <v>97</v>
@@ -1730,7 +1734,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94">
         <v>285</v>
@@ -1744,7 +1748,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>285</v>
@@ -1758,7 +1762,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>235</v>
@@ -1772,7 +1776,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97">
         <v>235</v>
@@ -1786,13 +1790,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98">
         <v>188</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>790</v>
@@ -1800,7 +1804,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B99">
         <v>188</v>
@@ -1814,7 +1818,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <v>46</v>
@@ -1828,7 +1832,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <v>136</v>
@@ -1842,7 +1846,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B102">
         <v>189</v>
@@ -1856,7 +1860,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>189</v>
@@ -1870,7 +1874,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B104">
         <v>316</v>
@@ -1884,7 +1888,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <v>51</v>
@@ -1898,7 +1902,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106">
         <v>47</v>
@@ -1912,7 +1916,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B107">
         <v>96</v>
@@ -1926,7 +1930,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108">
         <v>240</v>
@@ -1940,7 +1944,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109">
         <v>240</v>
@@ -1954,7 +1958,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B110">
         <v>159</v>
@@ -1968,7 +1972,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B111">
         <v>249</v>
@@ -1982,7 +1986,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112">
         <v>186</v>
@@ -1996,7 +2000,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113">
         <v>149</v>
@@ -2010,7 +2014,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B114">
         <v>149</v>
@@ -2024,7 +2028,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115">
         <v>237</v>
@@ -2038,7 +2042,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B116">
         <v>29</v>
@@ -2052,7 +2056,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B117">
         <v>139</v>
@@ -2066,7 +2070,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118">
         <v>49</v>
@@ -2080,7 +2084,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B119">
         <v>49</v>
@@ -2094,7 +2098,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120">
         <v>139</v>
@@ -2108,7 +2112,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121">
         <v>48</v>
@@ -2122,7 +2126,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B122">
         <v>185</v>
@@ -2136,7 +2140,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B123">
         <v>185</v>
@@ -2150,7 +2154,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B124">
         <v>91</v>
@@ -2164,7 +2168,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125">
         <v>144</v>
@@ -2178,7 +2182,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -2192,7 +2196,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -2206,7 +2210,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B128">
         <v>14</v>
@@ -2220,7 +2224,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129">
         <v>14</v>
@@ -2234,7 +2238,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B130">
         <v>341</v>
@@ -2248,7 +2252,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131">
         <v>147</v>
@@ -2262,7 +2266,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B132">
         <v>144</v>
@@ -2276,7 +2280,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B133">
         <v>106</v>
@@ -2290,7 +2294,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B134">
         <v>233</v>
@@ -2304,7 +2308,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B135">
         <v>184</v>
@@ -2318,7 +2322,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136">
         <v>184</v>
@@ -2332,7 +2336,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137">
         <v>279</v>
@@ -2346,7 +2350,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B138">
         <v>279</v>
@@ -2360,7 +2364,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B139">
         <v>241</v>
@@ -2374,7 +2378,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B140">
         <v>26</v>
@@ -2388,7 +2392,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141">
         <v>233</v>
@@ -2402,7 +2406,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B142">
         <v>193</v>
@@ -2416,7 +2420,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143">
         <v>294</v>
@@ -2430,13 +2434,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B144">
         <v>193</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>181</v>
@@ -2444,7 +2448,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B145">
         <v>338</v>
@@ -2458,7 +2462,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146">
         <v>59</v>
@@ -2472,7 +2476,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B147">
         <v>103</v>
@@ -2486,13 +2490,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148">
         <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D148">
         <v>1253</v>
@@ -2500,7 +2504,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149">
         <v>318</v>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B150">
         <v>201</v>
@@ -2528,7 +2532,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>58</v>
@@ -2542,7 +2546,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152">
         <v>59</v>
@@ -2556,7 +2560,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B153">
         <v>239</v>
@@ -2570,7 +2574,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154">
         <v>239</v>
@@ -2584,7 +2588,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155">
         <v>275</v>
@@ -2598,7 +2602,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156">
         <v>273</v>
@@ -2612,7 +2616,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157">
         <v>328</v>
@@ -2626,7 +2630,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158">
         <v>274</v>
@@ -2640,13 +2644,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159">
         <v>288</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D159">
         <v>1504</v>
@@ -2654,7 +2658,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160">
         <v>195</v>
@@ -2668,7 +2672,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161">
         <v>284</v>
@@ -2682,7 +2686,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B162">
         <v>195</v>
@@ -2696,7 +2700,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <v>284</v>
@@ -2710,7 +2714,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B164">
         <v>328</v>
@@ -2724,7 +2728,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B165">
         <v>234</v>
@@ -2738,7 +2742,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166">
         <v>275</v>
@@ -2752,7 +2756,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B167">
         <v>234</v>
@@ -2766,7 +2770,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168">
         <v>230</v>
@@ -2780,7 +2784,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B169">
         <v>288</v>
@@ -2794,7 +2798,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B170">
         <v>274</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -2822,7 +2826,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B172">
         <v>230</v>
@@ -2836,7 +2840,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B173">
         <v>318</v>
@@ -2850,7 +2854,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174">
         <v>94</v>
@@ -2864,7 +2868,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B175">
         <v>273</v>
@@ -2878,7 +2882,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B176">
         <v>94</v>
@@ -2892,7 +2896,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B177">
         <v>58</v>
@@ -2906,7 +2910,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B178">
         <v>95</v>
@@ -2920,7 +2924,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B179">
         <v>281</v>
@@ -2934,7 +2938,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B180">
         <v>183</v>
@@ -2948,7 +2952,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181">
         <v>323</v>
@@ -2962,7 +2966,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B182">
         <v>95</v>
@@ -2976,7 +2980,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B183">
         <v>266</v>
@@ -2990,7 +2994,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B184">
         <v>142</v>
@@ -3004,7 +3008,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B185">
         <v>236</v>
@@ -3018,7 +3022,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B186">
         <v>53</v>
@@ -3032,7 +3036,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B187">
         <v>183</v>
@@ -3046,7 +3050,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B188">
         <v>323</v>
@@ -3056,6 +3060,76 @@
       </c>
       <c r="D188">
         <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="1">
+        <v>137</v>
+      </c>
+      <c r="C189">
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="1">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
